--- a/Чек лист.xlsx
+++ b/Чек лист.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Дипломный проект\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arseni/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA33B1FC-CDA0-4CD5-9EC5-90606A5AC87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D5AE42-746C-474E-B0FD-0D72F79B7511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Чек-лист проверок</t>
   </si>
@@ -72,12 +72,6 @@
     <t>Создание чата</t>
   </si>
   <si>
-    <t>Вход в чат</t>
-  </si>
-  <si>
-    <t>Выход с чата</t>
-  </si>
-  <si>
     <t>Удаление чата</t>
   </si>
   <si>
@@ -207,9 +201,6 @@
     <t>Закончить аудио звонок</t>
   </si>
   <si>
-    <t>Добавление человека в общение</t>
-  </si>
-  <si>
     <t>Блокировка нежелательного человека</t>
   </si>
   <si>
@@ -241,6 +232,18 @@
   </si>
   <si>
     <t>Выход из группового чата</t>
+  </si>
+  <si>
+    <t>Принятие приглашения на общение с другим пользователем</t>
+  </si>
+  <si>
+    <t>Заблокировать общение с другим пользователем</t>
+  </si>
+  <si>
+    <t>Предварительный просмотр сообщения</t>
+  </si>
+  <si>
+    <t>Добавление пользователя в общение</t>
   </si>
 </sst>
 </file>
@@ -514,16 +517,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -536,51 +583,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -866,514 +870,520 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="53.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="E3" s="16" t="s">
+      <c r="B3" s="24"/>
+      <c r="E3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="20" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="21"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="27"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="E5" s="24" t="s">
+      <c r="B5" s="27"/>
+      <c r="E5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="20" t="s">
+      <c r="F5" s="20"/>
+      <c r="G5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="21"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="27"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="B7" s="27"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="24"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="27"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="27"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="27"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="27"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="B13" s="27"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="B14" s="27"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="B15" s="27"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B16" s="27"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="B17" s="27"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="27"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="27"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="27"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="27"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="27"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="24"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="4"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="B55" s="24"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="10"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="4"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="4"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="4"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="4"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="4"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="4"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="4"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="4"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" s="4"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48" s="4"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B49" s="4"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" s="4"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B51" s="4"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B52" s="4"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B53" s="4"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="10"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B55" s="4"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B56" s="4"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="4"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="B60" s="4"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B58" s="4"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" s="4"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="B61" s="4"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="4"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B61" s="4"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="B62" s="4"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B63" s="4"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B64" s="4"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B65" s="4"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B66" s="4"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="B67" s="4"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="4"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="4"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="4"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
     </row>
-    <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="7"/>
-      <c r="B80" s="8"/>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="3"/>
+      <c r="B80" s="4"/>
+    </row>
+    <row r="81" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="6"/>
+      <c r="B81" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="E3:F4"/>
     <mergeCell ref="G3:H4"/>
     <mergeCell ref="E5:F6"/>
     <mergeCell ref="G5:H6"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Чек лист.xlsx
+++ b/Чек лист.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arseni/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Арсений\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D5AE42-746C-474E-B0FD-0D72F79B7511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE82AEF-0C33-4BA3-A79B-F2A6236AF871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
   <si>
     <t>Чек-лист проверок</t>
   </si>
@@ -526,6 +526,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -571,20 +585,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -872,518 +872,554 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="1" max="1" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="E3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="15" t="s">
+      <c r="B3" s="11"/>
+      <c r="E3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="16"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="E5" s="19" t="s">
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="15" t="s">
+      <c r="F5" s="26"/>
+      <c r="G5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="27"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="B7" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="24"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="27"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="27"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="27"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="27"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="27"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="27"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="27"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="27"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="27"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="27"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="27"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="27"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="27"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="27"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="24"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="11"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B43" s="4"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B44" s="4"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B45" s="4"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B46" s="4"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B47" s="4"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B48" s="4"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B50" s="4"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B51" s="4"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B52" s="4"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B53" s="4"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B54" s="4"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="23" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="24"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="11"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B56" s="4"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B57" s="4"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B58" s="4"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B59" s="4"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B60" s="4"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B61" s="4"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B62" s="4"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B63" s="4"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B64" s="4"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="4"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="4"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="4"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="4"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="4"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="4"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="4"/>
     </row>
-    <row r="81" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="G5:H6"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="G5:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
